--- a/2017-01-06/UAdeC-FIME-4A/Homework004/db/questions.xlsx
+++ b/2017-01-06/UAdeC-FIME-4A/Homework004/db/questions.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Courses\2017-01-06\UAdeC-FIME-4A\Homework001\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Works\Courses\2017-01-06\UAdeC-FIME-4A\Homework004\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>No</t>
   </si>
@@ -238,6 +238,21 @@
   </si>
   <si>
     <t>Castrejón Alfaro Sergio Pablo</t>
+  </si>
+  <si>
+    <t>07272835</t>
+  </si>
+  <si>
+    <t>Martínez Murillo Brandon Alan</t>
+  </si>
+  <si>
+    <t>Márquez Rivera Ivan Oswaldo</t>
+  </si>
+  <si>
+    <t>08060551</t>
+  </si>
+  <si>
+    <t>07058521</t>
   </si>
 </sst>
 </file>
@@ -721,8 +736,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1044,9 +1060,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB20"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1226,75 +1244,75 @@
       </c>
       <c r="C2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <f ca="1">10+C2</f>
+        <v>18</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:O13" ca="1" si="0">RANDBETWEEN(2,9)</f>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P2">
-        <f t="shared" ref="P2:X20" ca="1" si="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <f t="shared" ref="P2:X21" ca="1" si="1">RANDBETWEEN(2,9)</f>
+        <v>4</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="1"/>
@@ -1302,31 +1320,31 @@
       </c>
       <c r="V2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="X2">
         <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Y2">
-        <f t="shared" ref="Y2:AB20" ca="1" si="2">RANDBETWEEN(2,9)</f>
+        <f t="shared" ref="Y2:AB21" ca="1" si="2">RANDBETWEEN(2,9)</f>
         <v>5</v>
       </c>
       <c r="Z2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AA2">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB2">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:54" x14ac:dyDescent="0.25">
@@ -1337,20 +1355,20 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D17" ca="1" si="3">RANDBETWEEN(2,9)</f>
-        <v>6</v>
+        <f t="shared" ref="C3:C22" ca="1" si="3">RANDBETWEEN(2,9)</f>
+        <v>3</v>
       </c>
       <c r="D3">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ref="D3:D22" ca="1" si="4">10+C3</f>
+        <v>13</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
@@ -1358,15 +1376,15 @@
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
@@ -1374,23 +1392,23 @@
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="1"/>
@@ -1402,11 +1420,11 @@
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="1"/>
@@ -1414,31 +1432,31 @@
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="W3">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="X3">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="Y3">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z3">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AA3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB3">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:54" x14ac:dyDescent="0.25">
@@ -1453,48 +1471,48 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
@@ -1502,55 +1520,55 @@
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W4">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="X4">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y4">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Z4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AA4">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AB4">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
@@ -1562,15 +1580,15 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
@@ -1578,39 +1596,39 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="1"/>
@@ -1618,27 +1636,27 @@
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W5">
         <f t="shared" ca="1" si="1"/>
@@ -1646,23 +1664,23 @@
       </c>
       <c r="X5">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y5">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Z5">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AA5">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB5">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:54" x14ac:dyDescent="0.25">
@@ -1674,95 +1692,95 @@
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="X6">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Y6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Z6">
         <f t="shared" ca="1" si="2"/>
@@ -1770,11 +1788,11 @@
       </c>
       <c r="AA6">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AB6">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:54" x14ac:dyDescent="0.25">
@@ -1786,55 +1804,55 @@
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="1"/>
@@ -1850,19 +1868,19 @@
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="W7">
         <f t="shared" ca="1" si="1"/>
@@ -1878,15 +1896,15 @@
       </c>
       <c r="Z7">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AA7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AB7">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:54" x14ac:dyDescent="0.25">
@@ -1898,11 +1916,11 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
@@ -1910,31 +1928,31 @@
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
@@ -1942,31 +1960,31 @@
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="1"/>
@@ -1978,27 +1996,27 @@
       </c>
       <c r="W8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X8">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Y8">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Z8">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA8">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB8">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:54" x14ac:dyDescent="0.25">
@@ -2010,31 +2028,31 @@
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
@@ -2042,43 +2060,43 @@
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="1"/>
@@ -2086,31 +2104,31 @@
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="W9">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="Y9">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Z9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AA9">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AB9">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:54" x14ac:dyDescent="0.25">
@@ -2122,47 +2140,47 @@
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>17</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
@@ -2170,47 +2188,47 @@
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="X10">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y10">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Z10">
         <f t="shared" ca="1" si="2"/>
@@ -2218,11 +2236,11 @@
       </c>
       <c r="AA10">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AB10">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:54" x14ac:dyDescent="0.25">
@@ -2234,51 +2252,51 @@
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
@@ -2286,11 +2304,11 @@
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
@@ -2302,19 +2320,19 @@
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X11">
         <f t="shared" ca="1" si="1"/>
@@ -2322,19 +2340,19 @@
       </c>
       <c r="Y11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="Z11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AA11">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AB11">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:54" x14ac:dyDescent="0.25">
@@ -2346,39 +2364,39 @@
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
@@ -2386,19 +2404,19 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="1"/>
@@ -2406,19 +2424,19 @@
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="1"/>
@@ -2426,27 +2444,27 @@
       </c>
       <c r="W12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="X12">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="Y12">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Z12">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AA12">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB12">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:54" x14ac:dyDescent="0.25">
@@ -2458,99 +2476,99 @@
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <f t="shared" ref="E13:O20" ca="1" si="4">RANDBETWEEN(2,9)</f>
-        <v>7</v>
+        <f t="shared" ref="E13:O22" ca="1" si="5">RANDBETWEEN(2,9)</f>
+        <v>8</v>
       </c>
       <c r="G13">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="H13">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="I13">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>2</v>
       </c>
       <c r="J13">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="K13">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="L13">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="M13">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="N13">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="O13">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="W13">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X13">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="Y13">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Z13">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA13">
         <f t="shared" ca="1" si="2"/>
@@ -2558,7 +2576,7 @@
       </c>
       <c r="AB13">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:54" x14ac:dyDescent="0.25">
@@ -2570,75 +2588,75 @@
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="E14">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="G14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="H14">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="I14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="J14">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="K14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="L14">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="M14">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>3</v>
       </c>
       <c r="N14">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="O14">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="1"/>
@@ -2646,27 +2664,27 @@
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="W14">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="X14">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Y14">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Z14">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AA14">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AB14">
         <f t="shared" ca="1" si="2"/>
@@ -2682,55 +2700,55 @@
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>18</v>
       </c>
       <c r="E15">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="G15">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="H15">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="I15">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="J15">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="K15">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="L15">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="M15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="N15">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
       <c r="O15">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="1"/>
@@ -2738,23 +2756,23 @@
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="1"/>
@@ -2762,15 +2780,15 @@
       </c>
       <c r="W15">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y15">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Z15">
         <f t="shared" ca="1" si="2"/>
@@ -2778,11 +2796,11 @@
       </c>
       <c r="AA15">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB15">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:54" x14ac:dyDescent="0.25">
@@ -2794,75 +2812,75 @@
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="3"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>12</v>
       </c>
       <c r="E16">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="G16">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="H16">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="I16">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="J16">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="K16">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="L16">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="M16">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="N16">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="O16">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="1"/>
@@ -2870,31 +2888,31 @@
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="X16">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Y16">
         <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="Z16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AA16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AB16">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.25">
@@ -2906,59 +2924,59 @@
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="3"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>19</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="G17">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
       </c>
       <c r="H17">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="I17">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="J17">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="K17">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="L17">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="M17">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
       </c>
       <c r="N17">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="O17">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="1"/>
@@ -2966,47 +2984,47 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="W17">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="X17">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="Y17">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z17">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AA17">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AB17">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.25">
@@ -3017,72 +3035,72 @@
         <v>70</v>
       </c>
       <c r="C18">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>4</v>
       </c>
       <c r="D18">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>14</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="G18">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="H18">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="I18">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="J18">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
       </c>
       <c r="K18">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>9</v>
       </c>
       <c r="L18">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="M18">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="N18">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>5</v>
+        <f t="shared" ref="N18:V22" ca="1" si="6">RANDBETWEEN(2,9)</f>
+        <v>6</v>
       </c>
       <c r="O18">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="1"/>
@@ -3090,35 +3108,35 @@
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="W18">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>6</v>
+        <f t="shared" ref="W18:AB22" ca="1" si="7">RANDBETWEEN(2,9)</f>
+        <v>5</v>
       </c>
       <c r="X18">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>9</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
       </c>
       <c r="Y18">
         <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Z18">
         <f t="shared" ca="1" si="2"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AA18">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AB18">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.25">
@@ -3129,60 +3147,60 @@
         <v>71</v>
       </c>
       <c r="C19">
-        <f ca="1">RANDBETWEEN(2,9)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>3</v>
       </c>
       <c r="D19">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>4</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>13</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>7</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="G19">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
       </c>
       <c r="H19">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
       </c>
       <c r="I19">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="J19">
-        <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
       </c>
       <c r="K19">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
       </c>
       <c r="L19">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" ca="1" si="5"/>
         <v>4</v>
       </c>
       <c r="M19">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
       </c>
       <c r="N19">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>2</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
       </c>
       <c r="O19">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>4</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="1"/>
@@ -3190,159 +3208,383 @@
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="1"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="1"/>
         <v>5</v>
       </c>
       <c r="W19">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>8</v>
       </c>
       <c r="X19">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>7</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
       </c>
       <c r="Y19">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z19">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AA19">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AB19">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>7272835</v>
+      <c r="A20" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
       </c>
       <c r="C20">
-        <f ca="1">RANDBETWEEN(2,9)</f>
+        <f t="shared" ca="1" si="3"/>
         <v>5</v>
       </c>
       <c r="D20">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>6</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>15</v>
       </c>
       <c r="E20">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G20">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I20">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J20">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="M20">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N20">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="P20">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="R20">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="S20">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="V20">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="W20">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X20">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="Z20">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AA20">
+        <f t="shared" ca="1" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AB20">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21">
+        <f t="shared" ca="1" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="D21">
         <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="L21">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="M21">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="O21">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="P21">
+        <f t="shared" ca="1" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="R21">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="S21">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="T21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="U21">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="V21">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="W21">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X21">
+        <f t="shared" ca="1" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="Y21">
+        <f t="shared" ca="1" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="Z21">
+        <f t="shared" ca="1" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="AA21">
+        <f t="shared" ca="1" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="AB21">
+        <f t="shared" ca="1" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ca="1" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="D22">
         <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="4"/>
-        <v>8</v>
-      </c>
-      <c r="H20">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <f t="shared" ca="1" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="K20">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
-      </c>
-      <c r="L20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="M20">
-        <f t="shared" ca="1" si="4"/>
-        <v>2</v>
-      </c>
-      <c r="N20">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>2</v>
-      </c>
-      <c r="O20">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
-      </c>
-      <c r="P20">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" ca="1" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="R20">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="S20">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="T20">
-        <f t="shared" ca="1" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="U20">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="V20">
-        <f t="shared" ca="1" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="W20">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>3</v>
-      </c>
-      <c r="X20">
-        <f ca="1">RANDBETWEEN(2,9)</f>
-        <v>6</v>
-      </c>
-      <c r="Y20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="Z20">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
-      </c>
-      <c r="AA20">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="AB20">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>16</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="5"/>
+        <v>9</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="P22">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" ca="1" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="R22">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <f t="shared" ca="1" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="T22">
+        <f t="shared" ca="1" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="U22">
+        <f t="shared" ca="1" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <f t="shared" ca="1" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="W22">
+        <f t="shared" ca="1" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="X22">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="Y22">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="Z22">
+        <f t="shared" ca="1" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AA22">
+        <f t="shared" ca="1" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="AB22">
+        <f t="shared" ca="1" si="7"/>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
